--- a/reports/zReadingList.xlsx
+++ b/reports/zReadingList.xlsx
@@ -15,57 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
-  <si>
-    <t>00001262</t>
-  </si>
-  <si>
-    <t>00001264</t>
-  </si>
-  <si>
-    <t>00001263</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000008</t>
   </si>
   <si>
     <t>00000000</t>
   </si>
   <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>00000007</t>
+  </si>
+  <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>34,569.78</t>
-  </si>
-  <si>
-    <t>17,166.39</t>
-  </si>
-  <si>
-    <t>17,490.39</t>
-  </si>
-  <si>
-    <t>1,330.00</t>
-  </si>
-  <si>
-    <t>1,851.21</t>
-  </si>
-  <si>
-    <t>14,917.90</t>
-  </si>
-  <si>
-    <t>1,708.71</t>
-  </si>
-  <si>
-    <t>1,522.29</t>
-  </si>
-  <si>
-    <t>15,654.00</t>
-  </si>
-  <si>
-    <t>1,000.24</t>
-  </si>
-  <si>
-    <t>17,403.39</t>
-  </si>
-  <si>
-    <t>Report Details</t>
+    <t>1,799.01</t>
+  </si>
+  <si>
+    <t>21,137.17</t>
+  </si>
+  <si>
+    <t>20,123.00</t>
+  </si>
+  <si>
+    <t>ZRead Counter</t>
   </si>
   <si>
     <t>Beg. SI</t>
@@ -625,13 +604,13 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -639,7 +618,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -647,7 +626,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -655,115 +634,115 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2">
-        <v>324.0</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>159.82</v>
+        <v>561.6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>161.68</v>
+        <v>67.39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>201.97</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>0.0</v>
@@ -771,77 +750,77 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>634.28</v>
+        <v>38.91</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
-        <v>0.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
-        <v>87.0</v>
+        <v>892.0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="B25" s="2">
+        <v>124.2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="B26" s="2">
+        <v>408.17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
-        <v>711.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>0.0</v>
@@ -849,7 +828,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>0.0</v>
@@ -857,15 +836,15 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
-        <v>0.0</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>0.0</v>
@@ -873,59 +852,59 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
-        <v>0.0</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2">
-        <v>0.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
-        <v>87.0</v>
+        <v>892.0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>0.0</v>
@@ -933,7 +912,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
         <v>0.0</v>
@@ -941,7 +920,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>0.0</v>
@@ -949,61 +928,61 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2">
-        <v>142.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2">
-        <v>0.0</v>
+        <v>29.79</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="B45" s="2">
+        <v>94.41</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
-        <v>500.25</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2">
         <v>0.0</v>
@@ -1011,34 +990,34 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2">
-        <v>335.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0.0</v>
+        <v>60</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="B54" s="2">
+        <v>582.17</v>
       </c>
     </row>
   </sheetData>
